--- a/English/BigBen/Gerund words.xlsx
+++ b/English/BigBen/Gerund words.xlsx
@@ -29,12 +29,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="180">
+  <si>
+    <t>to + V</t>
+  </si>
   <si>
     <t xml:space="preserve"> V + ING</t>
   </si>
   <si>
-    <t>to + V</t>
+    <t>can be both</t>
+  </si>
+  <si>
+    <t>afford</t>
+  </si>
+  <si>
+    <t>позволять</t>
   </si>
   <si>
     <t>admit</t>
@@ -43,10 +52,16 @@
     <t>признавать</t>
   </si>
   <si>
-    <t>afford</t>
-  </si>
-  <si>
-    <t>позволять</t>
+    <t>begin</t>
+  </si>
+  <si>
+    <t>начинать</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>соглашаться</t>
   </si>
   <si>
     <t>appreciate</t>
@@ -55,10 +70,16 @@
     <t>ценить</t>
   </si>
   <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>соглашаться</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>нравиться</t>
+  </si>
+  <si>
+    <t>appear</t>
+  </si>
+  <si>
+    <t>показываться, появляться</t>
   </si>
   <si>
     <t>avoid</t>
@@ -67,10 +88,16 @@
     <t>избегать</t>
   </si>
   <si>
-    <t>appear</t>
-  </si>
-  <si>
-    <t>показываться, появляться</t>
+    <t>prefer</t>
+  </si>
+  <si>
+    <t>предпочитать</t>
+  </si>
+  <si>
+    <t>arrange</t>
+  </si>
+  <si>
+    <t>организовывать, устраивать</t>
   </si>
   <si>
     <t>burst out</t>
@@ -79,10 +106,10 @@
     <t>разразиться</t>
   </si>
   <si>
-    <t>arrange</t>
-  </si>
-  <si>
-    <t>организовывать, устраивать</t>
+    <t>ask</t>
+  </si>
+  <si>
+    <t>спрашивать, просить</t>
   </si>
   <si>
     <t>be worth</t>
@@ -91,10 +118,10 @@
     <t>стоящий</t>
   </si>
   <si>
-    <t>ask</t>
-  </si>
-  <si>
-    <t>спрашивать, просить</t>
+    <t>attempt</t>
+  </si>
+  <si>
+    <t>пытаться</t>
   </si>
   <si>
     <t>can't help</t>
@@ -103,10 +130,10 @@
     <t>не могу удержаться</t>
   </si>
   <si>
-    <t>attempt</t>
-  </si>
-  <si>
-    <t>пытаться</t>
+    <t>be able</t>
+  </si>
+  <si>
+    <t>быть способным</t>
   </si>
   <si>
     <t>can't stand</t>
@@ -115,10 +142,10 @@
     <t>не переносить</t>
   </si>
   <si>
-    <t>be able</t>
-  </si>
-  <si>
-    <t>быть способным</t>
+    <t>be glad/pleased</t>
+  </si>
+  <si>
+    <t>быть довольным</t>
   </si>
   <si>
     <t>consider</t>
@@ -127,10 +154,10 @@
     <t>рассматривать (принимать во внимание)</t>
   </si>
   <si>
-    <t>be glad/pleased</t>
-  </si>
-  <si>
-    <t>быть довольным</t>
+    <t>be surprised</t>
+  </si>
+  <si>
+    <t>удивляться / удивиться</t>
   </si>
   <si>
     <t>delay</t>
@@ -139,10 +166,10 @@
     <t>задерживать</t>
   </si>
   <si>
-    <t>be surprised</t>
-  </si>
-  <si>
-    <t>удивляться / удивиться</t>
+    <t>choose</t>
+  </si>
+  <si>
+    <t>выбирать / выбрать</t>
   </si>
   <si>
     <t>deny</t>
@@ -151,10 +178,10 @@
     <t>отрицать, отказывать</t>
   </si>
   <si>
-    <t>choose</t>
-  </si>
-  <si>
-    <t>выбирать / выбрать</t>
+    <t>continue</t>
+  </si>
+  <si>
+    <t>продолжать</t>
   </si>
   <si>
     <t>discuss</t>
@@ -436,7 +463,7 @@
     <t>object to</t>
   </si>
   <si>
-    <t>would like/prefer/love</t>
+    <t xml:space="preserve">would + like / prefer / love / hate </t>
   </si>
   <si>
     <t>хотел бы</t>
@@ -472,43 +499,37 @@
     <t>какой в этом смысл</t>
   </si>
   <si>
+    <t xml:space="preserve">forget </t>
+  </si>
+  <si>
+    <t>забыть о действии ещё не совершенном</t>
+  </si>
+  <si>
     <t>forget</t>
   </si>
   <si>
     <t>забыть о действии совершенном в прошлом</t>
   </si>
   <si>
-    <t xml:space="preserve">forget </t>
-  </si>
-  <si>
-    <t>забыть о действии ещё не совершенном</t>
-  </si>
-  <si>
     <t>remember</t>
   </si>
   <si>
+    <t>помнить о действии ещё не совершенном</t>
+  </si>
+  <si>
     <t>помнить о действии совершенном в прошлом</t>
   </si>
   <si>
-    <t>помнить о действии ещё не совершенном</t>
+    <t>regret</t>
+  </si>
+  <si>
+    <t>сожалеть о том, что хотите сделать</t>
   </si>
   <si>
     <t xml:space="preserve">regret </t>
   </si>
   <si>
     <t>сожалеть о том, что уже случилось</t>
-  </si>
-  <si>
-    <t>regret</t>
-  </si>
-  <si>
-    <t>сожалеть о том, что хотите сделать</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>прекратить действие</t>
   </si>
   <si>
     <t xml:space="preserve">stop </t>
@@ -518,32 +539,39 @@
 и затем продолжить действие</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>прекратить действие</t>
+  </si>
+  <si>
     <t xml:space="preserve">try </t>
+  </si>
+  <si>
+    <t>попытаться сделать что-то, 
+прилагая усилие</t>
   </si>
   <si>
     <t>попробовать сделать что-то 
 для достижения цели</t>
   </si>
   <si>
-    <t>попытаться сделать что-то, прилагая усилие</t>
-  </si>
-  <si>
     <t>go on</t>
   </si>
   <si>
+    <t>перейти к новому роду деятельности</t>
+  </si>
+  <si>
     <t>продолжить действие</t>
   </si>
   <si>
-    <t>перейти к новому роду деятельности</t>
-  </si>
-  <si>
     <t>need/want</t>
   </si>
   <si>
+    <t>активное действие</t>
+  </si>
+  <si>
     <t>пассивное действие</t>
-  </si>
-  <si>
-    <t>активное действие</t>
   </si>
 </sst>
 </file>
@@ -943,12 +971,38 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1088,7 +1142,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1100,34 +1154,34 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1212,7 +1266,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1223,29 +1277,33 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1602,724 +1660,767 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="23.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="47.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="3.85714285714286" customWidth="1"/>
-    <col min="4" max="4" width="23.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="49.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="22.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="44.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="3" customWidth="1"/>
+    <col min="4" max="4" width="23.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="45.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="7" max="7" width="11.1428571428571" customWidth="1"/>
+    <col min="8" max="8" width="27.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="E1" s="4"/>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" ht="15.95" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
+    </row>
+    <row r="3" ht="15.95" customHeight="1" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5" t="s">
+    </row>
+    <row r="4" ht="15.95" customHeight="1" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A6" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="5" t="s">
+    </row>
+    <row r="5" ht="15.95" customHeight="1" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A7" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" ht="15.95" customHeight="1" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A8" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" ht="15.95" customHeight="1" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="B7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" ht="15.95" customHeight="1" spans="1:8">
+      <c r="A8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>33</v>
+      <c r="A9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>37</v>
+      <c r="A10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>41</v>
+      <c r="A11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>45</v>
+      <c r="A12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>49</v>
+      <c r="A13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>53</v>
+      <c r="A14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>57</v>
+      <c r="A15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>61</v>
+      <c r="A16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A17" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>65</v>
+      <c r="A17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18" ht="29.25" customHeight="1" spans="1:5">
-      <c r="A18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>69</v>
+      <c r="A18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A19" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>73</v>
+      <c r="A19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="20" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>77</v>
+      <c r="A20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A21" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>81</v>
+      <c r="A21" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="22" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A22" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>85</v>
+      <c r="A22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="23" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A23" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>89</v>
+      <c r="A23" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="24" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>93</v>
+      <c r="A24" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="25" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A25" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="5" t="s">
+      <c r="A25" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" ht="15.95" customHeight="1" spans="1:5">
+      <c r="A26" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" ht="15.95" customHeight="1" spans="1:5">
+      <c r="A27" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" ht="15.95" customHeight="1" spans="1:5">
+      <c r="A28" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" ht="15.95" customHeight="1" spans="1:5">
+      <c r="A29" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" ht="15.95" customHeight="1" spans="1:5">
+      <c r="A30" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" ht="15.95" customHeight="1" spans="1:5">
+      <c r="A31" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" ht="15.95" customHeight="1" spans="1:5">
+      <c r="A32" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" ht="15.95" customHeight="1" spans="1:5">
+      <c r="A33" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A26" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A27" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A28" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A29" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A30" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A31" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A32" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A33" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>140</v>
+    </row>
+    <row r="36" ht="30" spans="1:5">
+      <c r="A36" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="A37" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" ht="15.75" spans="1:5">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3" t="s">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3" t="s">
+      <c r="C41" s="5"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" ht="15.75" spans="1:5">
-      <c r="A42" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>153</v>
+    <row r="42" s="2" customFormat="1" ht="30" spans="1:5">
+      <c r="A42" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" ht="30" spans="1:5">
+      <c r="A43" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>157</v>
+      <c r="A44" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="45" ht="30" spans="1:5">
-      <c r="A45" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="5" t="s">
-        <v>160</v>
+      <c r="A45" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" ht="30" spans="1:5">
-      <c r="A46" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>164</v>
+      <c r="A46" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>167</v>
+      <c r="A47" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4">
-      <c r="C49" s="11"/>
-      <c r="D49" s="13"/>
-    </row>
-    <row r="50" spans="4:4">
-      <c r="D50" s="14"/>
-    </row>
-    <row r="51" spans="4:4">
-      <c r="D51" s="13"/>
+      <c r="A48" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="15"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="16"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <pageMargins left="0.696527777777778" right="0.700694444444445" top="0.751388888888889" bottom="0.751388888888889" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>

--- a/English/BigBen/Gerund words.xlsx
+++ b/English/BigBen/Gerund words.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7170"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="184">
   <si>
     <t>to + V</t>
   </si>
@@ -572,19 +572,25 @@
   </si>
   <si>
     <t>пассивное действие</t>
+  </si>
+  <si>
+    <t>start (in continious tense)</t>
+  </si>
+  <si>
+    <t>стартовать, начинать</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>start (in non-continious tenses)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,353 +631,16 @@
       <name val="Arial"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1022,263 +691,26 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1312,58 +744,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1654,766 +1048,776 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="44.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" customWidth="1"/>
     <col min="3" max="3" width="3" customWidth="1"/>
-    <col min="4" max="4" width="23.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="45.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="45.140625" customWidth="1"/>
     <col min="6" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="11.1428571428571" customWidth="1"/>
-    <col min="8" max="8" width="27.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="16"/>
+      <c r="G1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" ht="15.95" customHeight="1" spans="1:8">
-      <c r="A2" s="6" t="s">
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="15.95" customHeight="1" spans="1:8">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="15.95" customHeight="1" spans="1:8">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="15.95" customHeight="1" spans="1:8">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" ht="15.95" customHeight="1" spans="1:8">
-      <c r="A6" s="6" t="s">
+      <c r="F5" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" ht="15.95" customHeight="1" spans="1:8">
-      <c r="A7" s="6" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" ht="15.95" customHeight="1" spans="1:8">
-      <c r="A8" s="6" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" ht="16.5" customHeight="1" spans="1:5">
-      <c r="A9" s="6" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" ht="29.25" customHeight="1" spans="1:5">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="6" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="6" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="25" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="6" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="6" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="6" t="s">
+      <c r="C27" s="5"/>
+      <c r="D27" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="28" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="6" t="s">
+      <c r="C28" s="5"/>
+      <c r="D28" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="29" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="6" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="30" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="6" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="6" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="32" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A33" s="6" t="s">
+      <c r="C33" s="5"/>
+      <c r="D33" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B34" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="6" t="s">
+      <c r="C34" s="5"/>
+      <c r="D34" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B35" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="6" t="s">
+      <c r="C35" s="5"/>
+      <c r="D35" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" ht="30" spans="1:5">
-      <c r="A36" s="6" t="s">
+      <c r="C36" s="5"/>
+      <c r="D36" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B37" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="6" t="s">
+      <c r="C37" s="5"/>
+      <c r="D37" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B38" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="6" t="s">
+      <c r="C38" s="8"/>
+      <c r="D38" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="6" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" ht="15.75" spans="1:5">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11" t="s">
+      <c r="C41" s="3"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" ht="30" spans="1:5">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="6" t="s">
+      <c r="C42" s="5"/>
+      <c r="D42" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="43" ht="30" spans="1:5">
-      <c r="A43" s="6" t="s">
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="6" t="s">
+      <c r="C43" s="5"/>
+      <c r="D43" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="6" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="12" t="s">
+      <c r="C44" s="8"/>
+      <c r="D44" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="45" ht="30" spans="1:5">
-      <c r="A45" s="6" t="s">
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="12" t="s">
+      <c r="C45" s="12"/>
+      <c r="D45" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="10" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="46" ht="30" spans="1:5">
-      <c r="A46" s="12" t="s">
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="12" t="s">
+      <c r="C46" s="12"/>
+      <c r="D46" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="11" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="6" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="12" t="s">
+      <c r="C47" s="8"/>
+      <c r="D47" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="10" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="12" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="12" t="s">
+      <c r="C48" s="8"/>
+      <c r="D48" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="15"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="16"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="15"/>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2421,40 +1825,31 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <pageMargins left="0.696527777777778" right="0.700694444444445" top="0.751388888888889" bottom="0.751388888888889" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
-  <headerFooter/>
+  <pageMargins left="0.69652777777777797" right="0.70069444444444495" top="0.75138888888888899" bottom="0.75138888888888899" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>